--- a/published-data/fonds-solidarite/fds-2020-12-28/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-28/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>59004</v>
+        <v>59005</v>
       </c>
       <c r="D156" t="n">
-        <v>109448057</v>
+        <v>109449495</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>18500</v>
+        <v>18499</v>
       </c>
       <c r="D266" t="n">
-        <v>33626471</v>
+        <v>33625033</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>76457</v>
+        <v>76458</v>
       </c>
       <c r="D267" t="n">
-        <v>184166577</v>
+        <v>184170793</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
